--- a/biology/Médecine/Syndrome_de_renutrition_inappropriée/Syndrome_de_renutrition_inappropriée.xlsx
+++ b/biology/Médecine/Syndrome_de_renutrition_inappropriée/Syndrome_de_renutrition_inappropriée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_de_renutrition_inappropri%C3%A9e</t>
+          <t>Syndrome_de_renutrition_inappropriée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de renutrition inappropriée (SRI) est caractérisé par un ensemble de complications métaboliques apparaissant au moment de la renutrition d’une personne ayant eu très peu d’apports alimentaires depuis plus de cinq jours, conduisant à un grand nombre de complications dont la mort.
 « Ce samedi là, d’ailleurs, la disette cessa. La nuit tomba, qu’on mangeait encore, et l’on mangea jusqu’au lendemain matin. Beaucoup en crevèrent. »
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_de_renutrition_inappropri%C3%A9e</t>
+          <t>Syndrome_de_renutrition_inappropriée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,63 +526,55 @@
           <t>Effets du jeûne sur l'organisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour vivre, l’être humain a besoin de se nourrir de la manière la plus équilibrée possible, afin d’assurer des apports en macro- et micronutriments adéquats. Une fois absorbés au niveau de l’intestin, ils permettent la formation d’énergie sous forme d’adénosine triphosphate (ATP) qui sera utilisée par les cellules pour le bon fonctionnement de l’organisme[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour vivre, l’être humain a besoin de se nourrir de la manière la plus équilibrée possible, afin d’assurer des apports en macro- et micronutriments adéquats. Une fois absorbés au niveau de l’intestin, ils permettent la formation d’énergie sous forme d’adénosine triphosphate (ATP) qui sera utilisée par les cellules pour le bon fonctionnement de l’organisme.
 En cas de jeûne et après épuisement des réserves, les besoins en nutriments ne sont plus couverts et un certain nombre de mécanismes se mettent en place.
-Synthèse de glucose
-Certains tissus ne peuvent utiliser que le glucose pour fonctionner (par absence d’équipement enzymatique), une production continue doit donc obligatoirement être assurée. Deux mécanismes se mettent en place après épuisement des réserves :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Syndrome_de_renutrition_inappropriée</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_renutrition_inappropri%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Effets du jeûne sur l'organisme</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synthèse de glucose</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Certains tissus ne peuvent utiliser que le glucose pour fonctionner (par absence d’équipement enzymatique), une production continue doit donc obligatoirement être assurée. Deux mécanismes se mettent en place après épuisement des réserves :
 La glycogénolyse : glycogène attaqué par la phosphorylase A 
 Libération de glucose 1 phosphate
 Transformation en glucose 6 phosphate par enzyme du foie
 La néoglucogenèse :
 Catabolisme lipidique avec hydrolyse des tri glycérides avec conversion en glucose de sa partie glycérol et conversion en corps cétoniques des trois chaînes d'acides gras.
-Protéolyse musculaire avec acides aminés glucoformateurs (alanine et glutamine)
-Adaptations métaboliques
-La lipolyse élevée permet aux tissus de recevoir des acides gras libres en grandes quantités, bénéfiques pour les muscles et le cœur notamment qui adaptent leur métabolisme pour assurer leurs dépenses. Ces acides gras sont aussi captés par le foie qui les transforme en corps cétoniques, et serviront au fonctionnement des muscles squelettiques et cardiaques.
-Variation des taux hormonaux plasmatiques
-Le pancréas et le système nerveux central décèlent immédiatement l’hypoglycémie engendrée par l’arrêt des apports. Le taux plasmatique d’insuline s’effondre alors et le glucagon augmente, ce qui stimule la néoglucogenèse et la glycogénolyse dans le foie.
-Modification des taux électrolytiques
-La période de jeûne s’accompagne de modifications de concentration en électrolytes intracellulaires : la déplétion. Étant donné que l’épuisement a lieu à l’intérieur des cellules, les concentrations plasmatiques pendant la période de jeûne sont maintenues normales.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Syndrome_de_renutrition_inappropri%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_renutrition_inappropri%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Conséquences du syndrome de renutrition inappropriée</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de renutrition apparaît en général dans les quatre à cinq jours qui suivent la reprise de l'alimentation. Les patients peuvent alors présenter des troubles au niveau des électrolytes sanguins, accompagnés de complications neurologiques, pulmonaires, cardiaques, neuromusculaires et hématologiques[2]. La plupart de ces effets proviennent d'une soudaine augmentation des graisses dans le métabolisme des glucides suivi d'une augmentation du niveau d'insuline, conduisant à une consommation accrue de phosphore, de potassium et de magnésium par les cellules. La circulation intracellulaire d'électrolytes cause une chute des électrolytes plasmatiques dont le phosphate, le potassium, le magnésium, le glucose et la thiamine[2].
-Complications électrolytiques
-Les principales complications électrolytiques sont[3] :
-Conséquences sur les différentes fonctions de l'organisme
-Conséquences cardiaques
-La période de dénutrition a des conséquences sur le myocarde, en effet on observe d’une part une hypocontractibilité myocardique due à l’atrophie des myocytes et à la déplétion en ATP, mais aussi une bradycardie, et un allongement de l’intervalle QT. Lors de la renutrition, le risque est l’insuffisance cardiaque par augmentation brutale du volume extracellulaire et de la pré-charge.
-Conséquences musculaires
-Déplétion en ATP à l’origine de faiblesses musculaires, atteignant notamment les muscles respiratoires et diaphragmatiques pouvant engendrer une insuffisance respiratoire.
-</t>
+Protéolyse musculaire avec acides aminés glucoformateurs (alanine et glutamine)</t>
         </is>
       </c>
     </row>
@@ -580,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_de_renutrition_inappropri%C3%A9e</t>
+          <t>Syndrome_de_renutrition_inappropriée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,27 +599,399 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Effets du jeûne sur l'organisme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Adaptations métaboliques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lipolyse élevée permet aux tissus de recevoir des acides gras libres en grandes quantités, bénéfiques pour les muscles et le cœur notamment qui adaptent leur métabolisme pour assurer leurs dépenses. Ces acides gras sont aussi captés par le foie qui les transforme en corps cétoniques, et serviront au fonctionnement des muscles squelettiques et cardiaques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Syndrome_de_renutrition_inappropriée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_renutrition_inappropri%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Effets du jeûne sur l'organisme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variation des taux hormonaux plasmatiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pancréas et le système nerveux central décèlent immédiatement l’hypoglycémie engendrée par l’arrêt des apports. Le taux plasmatique d’insuline s’effondre alors et le glucagon augmente, ce qui stimule la néoglucogenèse et la glycogénolyse dans le foie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome_de_renutrition_inappropriée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_renutrition_inappropri%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Effets du jeûne sur l'organisme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Modification des taux électrolytiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La période de jeûne s’accompagne de modifications de concentration en électrolytes intracellulaires : la déplétion. Étant donné que l’épuisement a lieu à l’intérieur des cellules, les concentrations plasmatiques pendant la période de jeûne sont maintenues normales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_de_renutrition_inappropriée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_renutrition_inappropri%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Conséquences du syndrome de renutrition inappropriée</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de renutrition apparaît en général dans les quatre à cinq jours qui suivent la reprise de l'alimentation. Les patients peuvent alors présenter des troubles au niveau des électrolytes sanguins, accompagnés de complications neurologiques, pulmonaires, cardiaques, neuromusculaires et hématologiques. La plupart de ces effets proviennent d'une soudaine augmentation des graisses dans le métabolisme des glucides suivi d'une augmentation du niveau d'insuline, conduisant à une consommation accrue de phosphore, de potassium et de magnésium par les cellules. La circulation intracellulaire d'électrolytes cause une chute des électrolytes plasmatiques dont le phosphate, le potassium, le magnésium, le glucose et la thiamine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Syndrome_de_renutrition_inappropriée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_renutrition_inappropri%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Conséquences du syndrome de renutrition inappropriée</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Complications électrolytiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principales complications électrolytiques sont :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_de_renutrition_inappropriée</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_renutrition_inappropri%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Conséquences du syndrome de renutrition inappropriée</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Conséquences sur les différentes fonctions de l'organisme</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Conséquences cardiaques</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La période de dénutrition a des conséquences sur le myocarde, en effet on observe d’une part une hypocontractibilité myocardique due à l’atrophie des myocytes et à la déplétion en ATP, mais aussi une bradycardie, et un allongement de l’intervalle QT. Lors de la renutrition, le risque est l’insuffisance cardiaque par augmentation brutale du volume extracellulaire et de la pré-charge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Syndrome_de_renutrition_inappropriée</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_renutrition_inappropri%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Conséquences du syndrome de renutrition inappropriée</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Conséquences sur les différentes fonctions de l'organisme</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Conséquences musculaires</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Déplétion en ATP à l’origine de faiblesses musculaires, atteignant notamment les muscles respiratoires et diaphragmatiques pouvant engendrer une insuffisance respiratoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Syndrome_de_renutrition_inappropriée</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_renutrition_inappropri%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Prise en charge</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prévention
-Afin d’adopter la bonne prévention et prise en charge et éviter tout risque de syndrome inapproprié, il est important d’identifier les sujets à risque et d’être plus particulièrement vigilant dans les cas suivants[1] : 
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Prévention</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afin d’adopter la bonne prévention et prise en charge et éviter tout risque de syndrome inapproprié, il est important d’identifier les sujets à risque et d’être plus particulièrement vigilant dans les cas suivants : 
 D’une manière générale, toute personne ayant des apports alimentaires quasiment inexistants (volontairement ou syndrome de malabsorption ou augmentation du besoin énergétique) depuis plus de cinq jours est un sujet à risque.
 Des critères précis ont été établis par le « National Institute for Heath and Care Excellence » en 2006 : 
-Mesures à prendre en compte
-Il est important de connaître chez le patient à risque :  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Syndrome_de_renutrition_inappropriée</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_renutrition_inappropri%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mesures à prendre en compte</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Il est important de connaître chez le patient à risque :  
 les critères anthropométriques : poids, taille, IMC, plis cutanés et circonférences
 l’historique de la dénutrition
 les marqueurs biologiques : albumine, préalbumine, transferrine, IGF1, créatininurie (sur 24h)
 l’indice de risque nutritionnel de Buzby
-l’index pronostique nutritionnel et inflammatoire = PINI
-Renutrition
-La renutrition repose sur une reprise prudente et progressive des apports alimentaires per os ou via nutrition artificielle, avec une surveillance régulière des constantes électrolytiques. Il est préconisé de commencer par des apports assez faibles puis d’augmenter les doses progressivement selon la tolérance du patient.
+l’index pronostique nutritionnel et inflammatoire = PINI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Syndrome_de_renutrition_inappropriée</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_renutrition_inappropri%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Renutrition</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La renutrition repose sur une reprise prudente et progressive des apports alimentaires per os ou via nutrition artificielle, avec une surveillance régulière des constantes électrolytiques. Il est préconisé de commencer par des apports assez faibles puis d’augmenter les doses progressivement selon la tolérance du patient.
 La tolérance est évaluée en fonction de l’apparition ou non de troubles hydroélectrolitiques, de leur profondeur, ainsi que leurs manifestations cliniques.
-Surveillance
-Afin de vérifier que la réalimentation n'engendre aucun trouble et est bien acceptée par le patient, une surveillance stricte doit être mise en place : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Syndrome_de_renutrition_inappropriée</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_renutrition_inappropri%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Surveillance</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Afin de vérifier que la réalimentation n'engendre aucun trouble et est bien acceptée par le patient, une surveillance stricte doit être mise en place : 
 Ionogramme sanguin : tous les jours la 1re semaine puis 3 fois / semaine à partir de la 2e semaine pour contrôler les électrolytes K+, Ca2+, P, Mg2+
 Surveillance stricte de la fonction rénale
 Ionogramme urinaire au moindre doute pour rééquilibrer le bilan E/S
@@ -623,31 +999,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Syndrome_de_renutrition_inappropri%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_renutrition_inappropri%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Syndrome_de_renutrition_inappropriée</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_renutrition_inappropri%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
